--- a/AAII_Financials/Quarterly/ATH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATH_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>ATH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,203 +665,227 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3462000</v>
+      </c>
+      <c r="F8" s="3">
         <v>4476000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3293000</v>
       </c>
-      <c r="F8" s="3">
-        <v>4872000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1187000</v>
-      </c>
       <c r="H8" s="3">
+        <v>4905000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1263000</v>
+      </c>
+      <c r="J8" s="3">
         <v>2588000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1856000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1060000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3862000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1468000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1716000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1620000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1137000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1241000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>-413000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>143000</v>
+      </c>
+      <c r="F9" s="3">
         <v>323000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>261000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>231000</v>
       </c>
-      <c r="G9" s="3">
-        <v>-37000</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="J9" s="3">
         <v>36000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>89000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>82000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>93000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>80000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>67000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>104000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>101000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3319000</v>
+      </c>
+      <c r="F10" s="3">
         <v>4153000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>3032000</v>
       </c>
-      <c r="F10" s="3">
-        <v>4641000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1224000</v>
-      </c>
       <c r="H10" s="3">
+        <v>4674000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1296000</v>
+      </c>
+      <c r="J10" s="3">
         <v>2552000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1767000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>978000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3769000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1388000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1649000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1516000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1036000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1121000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,8 +902,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +948,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,52 +998,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>25000</v>
+        <v>284000</v>
       </c>
       <c r="E14" s="3">
         <v>6000</v>
       </c>
       <c r="F14" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>12000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>3000</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M14" s="3">
         <v>8000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>13000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>11000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>3000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1098,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,96 +1119,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2900000</v>
+      </c>
+      <c r="F17" s="3">
         <v>4247000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2625000</v>
       </c>
-      <c r="F17" s="3">
-        <v>4222000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1347000</v>
-      </c>
       <c r="H17" s="3">
+        <v>4255000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1407000</v>
+      </c>
+      <c r="J17" s="3">
         <v>1900000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1481000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>692000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3453000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1192000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1437000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1214000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>692000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1240000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>562000</v>
+      </c>
+      <c r="F18" s="3">
         <v>229000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>668000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>650000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-160000</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-144000</v>
+      </c>
+      <c r="J18" s="3">
         <v>688000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>375000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>368000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>409000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>276000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>279000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>406000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>445000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,101 +1239,115 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="F20" s="3">
         <v>50000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>82000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>90000</v>
       </c>
-      <c r="G20" s="3">
-        <v>-28000</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-9000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-54000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-46000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>18000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>18000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>58000</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-44000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>533000</v>
+      </c>
+      <c r="F21" s="3">
         <v>279000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>750000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>740000</v>
       </c>
-      <c r="G21" s="3">
-        <v>-188000</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="J21" s="3">
         <v>679000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>321000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>322000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>427000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>294000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>337000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>406000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>401000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>20000</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
@@ -1301,102 +1379,120 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3">
         <v>15000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1382000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>533000</v>
+      </c>
+      <c r="F23" s="3">
         <v>279000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>750000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>740000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-188000</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="J23" s="3">
         <v>679000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>321000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>322000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>427000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>294000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>337000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>406000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>386000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>69000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-14000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>30000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>32000</v>
       </c>
-      <c r="G24" s="3">
-        <v>-69000</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="J24" s="3">
         <v>56000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>64000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>45000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>60000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>20000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>11000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>22000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>18000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-88000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,96 +1535,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1216000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>464000</v>
+      </c>
+      <c r="F26" s="3">
         <v>293000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>720000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>708000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-119000</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="J26" s="3">
         <v>623000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>257000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>277000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>367000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>274000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>326000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>384000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>368000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1065000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>432000</v>
+      </c>
+      <c r="F27" s="3">
         <v>276000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>720000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>708000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-119000</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="J27" s="3">
         <v>623000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>257000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>277000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>367000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>274000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>326000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>384000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>368000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1685,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1597,15 +1717,15 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>7000</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1615,8 +1735,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1785,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,96 +1835,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-50000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-82000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-90000</v>
       </c>
-      <c r="G32" s="3">
-        <v>28000</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J32" s="3">
         <v>9000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>54000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>46000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-18000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-18000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-58000</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>44000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-40000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1065000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>432000</v>
+      </c>
+      <c r="F33" s="3">
         <v>276000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>720000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>708000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-119000</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="J33" s="3">
         <v>623000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>257000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>277000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>374000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>274000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>326000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>384000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>368000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,101 +1985,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1065000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>432000</v>
+      </c>
+      <c r="F35" s="3">
         <v>276000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>720000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>708000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-119000</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="J35" s="3">
         <v>623000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>257000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>277000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>374000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>274000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>326000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>384000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>368000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2114,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,52 +2134,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5419000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4240000</v>
+      </c>
+      <c r="F41" s="3">
         <v>3836000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4848000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3023000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2913000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3725000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3610000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2738000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4892000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3608000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3480000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2565000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2459000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2560000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,8 +2230,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2096,8 +2280,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2140,8 +2330,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2184,8 +2380,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2228,52 +2430,64 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>120733000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>126861000</v>
+      </c>
+      <c r="F47" s="3">
         <v>124555000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>117742000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>113980000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>107241000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>99547000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>97232000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>78829000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>81751000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>79267000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>77030000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>73624000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>71786000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>72042000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2316,8 +2530,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2360,8 +2580,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2630,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,52 +2680,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>564000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>402000</v>
+      </c>
+      <c r="F52" s="3">
         <v>199000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>391000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>497000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>492000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>218000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>178000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>87000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>105000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>112000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>160000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>306000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>429000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,52 +2780,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>142179000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>146875000</v>
+      </c>
+      <c r="F54" s="3">
         <v>144202000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>138980000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>132857000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>125505000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>118204000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>114755000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>93557000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>100161000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>96061000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>93594000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>89220000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>86699000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>87000000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2854,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,8 +2874,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2660,16 +2920,22 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>475000</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -2680,15 +2946,15 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>183000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2704,52 +2970,64 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>118608000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>117828000</v>
+      </c>
+      <c r="F59" s="3">
         <v>116331000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>112506000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>110018000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>106220000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>96938000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>95206000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>74070000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>80485000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>79301000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>77401000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>74537000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>72281000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>73425000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2792,19 +3070,25 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>986000</v>
+      </c>
+      <c r="E61" s="3">
         <v>992000</v>
       </c>
-      <c r="E61" s="3">
-        <v>991000</v>
-      </c>
       <c r="F61" s="3">
-        <v>991000</v>
+        <v>992000</v>
       </c>
       <c r="G61" s="3">
         <v>991000</v>
@@ -2816,14 +3100,14 @@
         <v>991000</v>
       </c>
       <c r="J61" s="3">
+        <v>991000</v>
+      </c>
+      <c r="K61" s="3">
+        <v>991000</v>
+      </c>
+      <c r="L61" s="3">
         <v>992000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2836,8 +3120,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2880,8 +3170,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3220,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3270,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,52 +3320,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>132239000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>133484000</v>
+      </c>
+      <c r="F66" s="3">
         <v>130657000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>126615000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>122740000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>117229000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>109135000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>106250000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>84862000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>90985000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>87392000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>85310000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>81623000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>79841000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>79927000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3394,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3440,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3490,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3540,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,52 +3590,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5613000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>6939000</v>
+      </c>
+      <c r="F72" s="3">
         <v>6668000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>6461000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>5963000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>5286000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>5527000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>4887000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>4625000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>4255000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>4046000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3772000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>3488000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3070000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2750000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3690,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3740,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,52 +3790,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9940000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>13391000</v>
+      </c>
+      <c r="F76" s="3">
         <v>13545000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>12365000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>10117000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>8276000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>9069000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>8505000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8695000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9176000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>8669000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8284000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>7597000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>6858000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>7073000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,101 +3890,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1065000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>432000</v>
+      </c>
+      <c r="F81" s="3">
         <v>276000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>720000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>708000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-119000</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="J81" s="3">
         <v>623000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>257000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>277000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>374000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>274000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>326000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>384000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>368000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,52 +4019,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>143000</v>
+      </c>
+      <c r="F83" s="3">
         <v>323000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>261000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>231000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>-37000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>30000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>92000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>89000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>99000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>80000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>63000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>108000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>108000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +4115,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +4165,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4215,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4265,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,52 +4315,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>771000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>671000</v>
+      </c>
+      <c r="F89" s="3">
         <v>402000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>574000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1009000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1639000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>716000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-54000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>573000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1828000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>269000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>644000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>429000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>231000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,8 +4389,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3995,8 +4435,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4485,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,52 +4535,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-378000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2697000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3241000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1242000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2776000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2119000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2242000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-928000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2884000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1310000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1867000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1464000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1128000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-920000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1649000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4609,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4655,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4705,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4755,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,57 +4805,69 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>970000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2633000</v>
+      </c>
+      <c r="F100" s="3">
         <v>1635000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2387000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1882000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-150000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1681000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2037000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>139000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>769000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1710000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1752000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>817000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>588000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>641000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>-22000</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>8</v>
@@ -4379,11 +4875,11 @@
       <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -4392,65 +4888,77 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>11000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>15000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-11000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1341000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>607000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1204000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1719000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>115000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-538000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>155000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>963000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2172000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1289000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>123000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>947000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>122000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-108000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-746000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>ATH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,227 +665,239 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="3">
+        <v>4185000</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3">
         <v>3462000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4476000</v>
       </c>
-      <c r="G8" s="3">
-        <v>3293000</v>
-      </c>
       <c r="H8" s="3">
+        <v>3341000</v>
+      </c>
+      <c r="I8" s="3">
         <v>4905000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1263000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2588000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1856000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1060000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3862000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1468000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1716000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1620000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1137000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1241000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>-413000</v>
+        <v>361000</v>
       </c>
       <c r="E9" s="3">
-        <v>143000</v>
+        <v>-403000</v>
       </c>
       <c r="F9" s="3">
-        <v>323000</v>
+        <v>179000</v>
       </c>
       <c r="G9" s="3">
-        <v>261000</v>
+        <v>343000</v>
       </c>
       <c r="H9" s="3">
-        <v>231000</v>
+        <v>274000</v>
       </c>
       <c r="I9" s="3">
-        <v>-33000</v>
+        <v>236000</v>
       </c>
       <c r="J9" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="K9" s="3">
         <v>36000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>89000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>82000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>93000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>80000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>67000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>104000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>101000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3319000</v>
+      <c r="D10" s="3">
+        <v>3824000</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>4153000</v>
+        <v>3283000</v>
       </c>
       <c r="G10" s="3">
-        <v>3032000</v>
+        <v>4133000</v>
       </c>
       <c r="H10" s="3">
-        <v>4674000</v>
+        <v>3067000</v>
       </c>
       <c r="I10" s="3">
-        <v>1296000</v>
+        <v>4669000</v>
       </c>
       <c r="J10" s="3">
+        <v>1308000</v>
+      </c>
+      <c r="K10" s="3">
         <v>2552000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1767000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>978000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3769000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1388000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1649000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1516000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1036000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1121000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -904,8 +916,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -954,8 +967,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1004,58 +1020,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E14" s="3">
         <v>284000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>25000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>12000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>13000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1104,8 +1126,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1121,108 +1146,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3293000</v>
+      </c>
+      <c r="E17" s="3">
         <v>97000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2900000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4247000</v>
       </c>
-      <c r="G17" s="3">
-        <v>2625000</v>
-      </c>
       <c r="H17" s="3">
+        <v>2658000</v>
+      </c>
+      <c r="I17" s="3">
         <v>4255000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1407000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1481000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>692000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3453000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1192000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1437000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1214000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>692000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1240000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="3">
+        <v>892000</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
         <v>562000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>229000</v>
       </c>
-      <c r="G18" s="3">
-        <v>668000</v>
-      </c>
       <c r="H18" s="3">
+        <v>683000</v>
+      </c>
+      <c r="I18" s="3">
         <v>650000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-144000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>688000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>375000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>368000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>409000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>276000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>279000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>406000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>445000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1241,125 +1273,132 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3">
         <v>-29000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>50000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>82000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>90000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-9000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-54000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-46000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>18000</v>
       </c>
       <c r="N20" s="3">
         <v>18000</v>
       </c>
       <c r="O20" s="3">
+        <v>18000</v>
+      </c>
+      <c r="P20" s="3">
         <v>58000</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-44000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
+        <v>1110000</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
         <v>533000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>279000</v>
       </c>
-      <c r="G21" s="3">
-        <v>750000</v>
-      </c>
       <c r="H21" s="3">
+        <v>765000</v>
+      </c>
+      <c r="I21" s="3">
         <v>740000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-147000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>679000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>321000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>322000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>427000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>294000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>337000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>406000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>401000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E22" s="3">
         <v>20000</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+      <c r="H22" s="3">
+        <v>15000</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1385,114 +1424,123 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
         <v>15000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1081000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1382000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>533000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>279000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>750000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>740000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-147000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>679000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>321000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>322000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>427000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>294000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>337000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>406000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>386000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-166000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>69000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-14000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>30000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>32000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-43000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>56000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>64000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>45000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>60000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>20000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>22000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-88000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1541,108 +1589,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>931000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1216000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>464000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>293000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>720000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>708000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-104000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>623000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>257000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>277000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>367000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>274000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>326000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>384000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>368000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>824000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1065000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>432000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>276000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>720000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>708000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-104000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>623000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>257000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>277000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>367000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>274000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>326000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>384000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>368000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1691,8 +1748,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1723,12 +1783,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>7000</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1741,8 +1801,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1791,8 +1854,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1841,108 +1907,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="D32" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3">
         <v>29000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-50000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-82000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-90000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>9000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>54000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>46000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-18000</v>
       </c>
       <c r="N32" s="3">
         <v>-18000</v>
       </c>
       <c r="O32" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="P32" s="3">
         <v>-58000</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>44000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-40000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>824000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1065000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>432000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>276000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>720000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>708000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-104000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>623000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>257000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>277000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>374000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>274000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>326000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>384000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>368000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1991,113 +2066,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>824000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1065000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>432000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>276000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>720000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>708000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-104000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>623000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>257000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>277000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>374000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>274000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>326000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>384000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>368000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2116,8 +2200,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2136,58 +2221,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6240000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5419000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4240000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3836000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4848000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3023000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2913000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3725000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3610000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2738000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4892000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3608000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3480000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2565000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2459000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2560000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2236,8 +2325,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2286,8 +2378,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2336,8 +2431,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2386,8 +2484,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2436,58 +2537,64 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>161423000</v>
+      </c>
+      <c r="E47" s="3">
         <v>120733000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>126861000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>124555000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>117742000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>113980000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>107241000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>99547000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>97232000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>78829000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>81751000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>79267000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>77030000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>73624000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>71786000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>72042000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2536,8 +2643,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2586,8 +2696,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2636,8 +2749,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2686,58 +2802,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1281000</v>
+      </c>
+      <c r="E52" s="3">
         <v>564000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>402000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>199000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>391000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>497000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>492000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>218000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>178000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>87000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>105000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>112000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>160000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>306000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>429000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2786,58 +2908,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>183241000</v>
+      </c>
+      <c r="E54" s="3">
         <v>142179000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>146875000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>144202000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>138980000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>132857000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>125505000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>118204000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>114755000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>93557000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>100161000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>96061000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>93594000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>89220000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>86699000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>87000000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2856,8 +2984,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2876,8 +3005,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2926,20 +3056,23 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>400000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>475000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2952,12 +3085,12 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>183000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2976,58 +3109,64 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>151879000</v>
+      </c>
+      <c r="E59" s="3">
         <v>118608000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>117828000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>116331000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>112506000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>110018000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>106220000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>96938000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>95206000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>74070000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>80485000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>79301000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>77401000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>74537000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>72281000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>73425000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3076,22 +3215,25 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1486000</v>
+      </c>
+      <c r="E61" s="3">
         <v>986000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>992000</v>
       </c>
       <c r="F61" s="3">
         <v>992000</v>
       </c>
       <c r="G61" s="3">
-        <v>991000</v>
+        <v>992000</v>
       </c>
       <c r="H61" s="3">
         <v>991000</v>
@@ -3106,11 +3248,11 @@
         <v>991000</v>
       </c>
       <c r="L61" s="3">
+        <v>991000</v>
+      </c>
+      <c r="M61" s="3">
         <v>992000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3126,8 +3268,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3176,8 +3321,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3226,8 +3374,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3276,8 +3427,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3326,58 +3480,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>168530000</v>
+      </c>
+      <c r="E66" s="3">
         <v>132239000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>133484000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>130657000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>126615000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>122740000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>117229000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>109135000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>106250000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>84862000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>90985000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>87392000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>85310000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>81623000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>79841000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>79927000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3396,8 +3556,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3446,8 +3607,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3496,8 +3660,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3546,8 +3713,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3596,58 +3766,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6437000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5613000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6939000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6668000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6461000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5963000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5286000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5527000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4887000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4625000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4255000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4046000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3772000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3488000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3070000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2750000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3696,8 +3872,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3746,8 +3925,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3796,58 +3978,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14711000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9940000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13391000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13545000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12365000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10117000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8276000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9069000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8505000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8695000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9176000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8669000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8284000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7597000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6858000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7073000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3896,113 +4084,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>824000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1065000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>432000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>276000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>720000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>708000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-104000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>623000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>257000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>277000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>374000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>274000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>326000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>384000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>368000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4021,58 +4218,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E83" s="3">
         <v>10000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>143000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>323000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>261000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>231000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>-37000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>92000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>89000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>99000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>80000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>63000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>108000</v>
       </c>
       <c r="Q83" s="3">
         <v>108000</v>
       </c>
       <c r="R83" s="3">
+        <v>108000</v>
+      </c>
+      <c r="S83" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4121,8 +4322,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4171,8 +4375,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4221,8 +4428,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4271,8 +4481,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4321,58 +4534,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>631000</v>
+      </c>
+      <c r="E89" s="3">
         <v>771000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>671000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>402000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>574000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1009000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1639000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>716000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-54000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>573000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1828000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>269000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>644000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>429000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>231000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4391,8 +4610,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4441,8 +4661,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4491,8 +4714,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4541,58 +4767,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4358000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-378000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2697000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3241000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1242000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2776000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2119000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2242000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-928000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2884000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1310000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1867000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1464000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1128000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-920000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1649000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4611,8 +4843,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4661,8 +4894,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4711,8 +4947,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4761,8 +5000,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4811,67 +5053,73 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5264000</v>
+      </c>
+      <c r="E100" s="3">
         <v>970000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2633000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1635000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2387000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1882000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-150000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1681000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2037000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>139000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>769000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1710000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1752000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>817000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>588000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>641000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-22000</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
@@ -4881,8 +5129,8 @@
       <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -4894,71 +5142,77 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>11000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>15000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-11000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1538000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1341000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>607000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1204000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1719000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>115000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-538000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>155000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>963000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2172000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1289000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>123000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>947000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>122000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-108000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-746000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>ATH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,239 +665,251 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3160000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4185000</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3">
         <v>3462000</v>
       </c>
-      <c r="G8" s="3">
-        <v>4476000</v>
-      </c>
       <c r="H8" s="3">
+        <v>4534000</v>
+      </c>
+      <c r="I8" s="3">
         <v>3341000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4905000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1263000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2588000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1856000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1060000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3862000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1468000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1716000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1620000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1137000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1241000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>347000</v>
+      </c>
+      <c r="E9" s="3">
         <v>361000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>-403000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>179000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>343000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>274000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>236000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>-45000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>36000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>89000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>82000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>93000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>80000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>67000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>104000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>101000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2813000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3824000</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3">
         <v>3283000</v>
       </c>
-      <c r="G10" s="3">
-        <v>4133000</v>
-      </c>
       <c r="H10" s="3">
+        <v>4191000</v>
+      </c>
+      <c r="I10" s="3">
         <v>3067000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4669000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1308000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2552000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1767000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>978000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3769000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1388000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1649000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1516000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1036000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1121000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -917,8 +929,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -970,8 +983,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1023,61 +1039,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="E14" s="3">
         <v>5000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>284000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>25000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>3000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>13000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1129,8 +1151,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1147,114 +1172,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2133000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3293000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>97000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2900000</v>
       </c>
-      <c r="G17" s="3">
-        <v>4247000</v>
-      </c>
       <c r="H17" s="3">
+        <v>4290000</v>
+      </c>
+      <c r="I17" s="3">
         <v>2658000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4255000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1407000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1481000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>692000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3453000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1192000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1437000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1214000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>692000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1240000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1027000</v>
+      </c>
+      <c r="E18" s="3">
         <v>892000</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
         <v>562000</v>
       </c>
-      <c r="G18" s="3">
-        <v>229000</v>
-      </c>
       <c r="H18" s="3">
+        <v>244000</v>
+      </c>
+      <c r="I18" s="3">
         <v>683000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>650000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-144000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>688000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>375000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>368000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>409000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>276000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>279000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>406000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>445000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1274,125 +1306,132 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E20" s="3">
         <v>218000</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
         <v>-29000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>50000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>82000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>90000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-54000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-46000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>18000</v>
       </c>
       <c r="O20" s="3">
         <v>18000</v>
       </c>
       <c r="P20" s="3">
+        <v>18000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>58000</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-44000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1058000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1110000</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
         <v>533000</v>
       </c>
-      <c r="G21" s="3">
-        <v>279000</v>
-      </c>
       <c r="H21" s="3">
+        <v>294000</v>
+      </c>
+      <c r="I21" s="3">
         <v>765000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>740000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-147000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>679000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>321000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>322000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>427000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>294000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>337000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>406000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>401000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E22" s="3">
         <v>29000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>20000</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1400,8 +1439,8 @@
       <c r="H22" s="3">
         <v>15000</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+      <c r="I22" s="3">
+        <v>15000</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1427,120 +1466,129 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>15000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1024000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1081000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1382000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>533000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>279000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>750000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>740000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-147000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>679000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>321000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>322000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>427000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>294000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>337000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>406000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>386000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E24" s="3">
         <v>150000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-166000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>69000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-14000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>30000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>32000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-43000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>56000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>64000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>45000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>60000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>20000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>22000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-88000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1592,114 +1640,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>884000</v>
+      </c>
+      <c r="E26" s="3">
         <v>931000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1216000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>464000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>293000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>720000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>708000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-104000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>623000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>257000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>277000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>367000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>274000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>326000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>384000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>368000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>622000</v>
+      </c>
+      <c r="E27" s="3">
         <v>824000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1065000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>432000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>276000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>720000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>708000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-104000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>623000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>257000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>277000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>367000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>274000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>326000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>384000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>368000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1751,8 +1808,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1786,12 +1846,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>7000</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1804,8 +1864,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1857,8 +1920,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1910,114 +1976,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-218000</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="3">
         <v>29000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-50000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-82000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-90000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>54000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>46000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-18000</v>
       </c>
       <c r="O32" s="3">
         <v>-18000</v>
       </c>
       <c r="P32" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-58000</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>44000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-40000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>622000</v>
+      </c>
+      <c r="E33" s="3">
         <v>824000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1065000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>432000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>276000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>720000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>708000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-104000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>623000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>257000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>277000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>374000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>274000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>326000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>384000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>368000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2069,119 +2144,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>622000</v>
+      </c>
+      <c r="E35" s="3">
         <v>824000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1065000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>432000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>276000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>720000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>708000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-104000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>623000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>257000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>277000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>374000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>274000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>326000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>384000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>368000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2201,8 +2285,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2222,61 +2307,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7548000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6240000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5419000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4240000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3836000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4848000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3023000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2913000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3725000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3610000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2738000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4892000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3608000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3480000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2565000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2459000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2560000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2328,8 +2417,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2381,8 +2473,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2434,8 +2529,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2487,8 +2585,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2540,61 +2641,67 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>168693000</v>
+      </c>
+      <c r="E47" s="3">
         <v>161423000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>120733000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>126861000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>124555000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>117742000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>113980000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>107241000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>99547000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>97232000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>78829000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>81751000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>79267000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>77030000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>73624000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>71786000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>72042000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2646,8 +2753,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2699,8 +2809,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2752,8 +2865,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2805,61 +2921,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1226000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1281000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>564000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>402000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>199000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>391000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>497000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>492000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>218000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>178000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>87000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>105000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>112000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>160000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>306000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>429000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2911,61 +3033,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>191088000</v>
+      </c>
+      <c r="E54" s="3">
         <v>183241000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>142179000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>146875000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>144202000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>138980000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>132857000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>125505000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>118204000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>114755000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>93557000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>100161000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>96061000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>93594000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>89220000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>86699000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>87000000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2985,8 +3113,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3006,8 +3135,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3059,8 +3189,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3068,14 +3201,14 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>400000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>475000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3088,12 +3221,12 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>183000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3112,61 +3245,67 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>155920000</v>
+      </c>
+      <c r="E59" s="3">
         <v>151879000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>118608000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>117828000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>116331000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>112506000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>110018000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>106220000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>96938000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>95206000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>74070000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>80485000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>79301000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>77401000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>74537000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>72281000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>73425000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3218,25 +3357,28 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1487000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1486000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>986000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>992000</v>
       </c>
       <c r="G61" s="3">
         <v>992000</v>
       </c>
       <c r="H61" s="3">
-        <v>991000</v>
+        <v>992000</v>
       </c>
       <c r="I61" s="3">
         <v>991000</v>
@@ -3251,11 +3393,11 @@
         <v>991000</v>
       </c>
       <c r="M61" s="3">
+        <v>991000</v>
+      </c>
+      <c r="N61" s="3">
         <v>992000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3271,8 +3413,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3324,8 +3469,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3377,8 +3525,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3430,8 +3581,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3483,61 +3637,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>175145000</v>
+      </c>
+      <c r="E66" s="3">
         <v>168530000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>132239000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>133484000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>130657000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>126615000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>122740000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>117229000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>109135000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>106250000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>84862000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>90985000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>87392000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>85310000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>81623000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>79841000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>79927000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3557,8 +3717,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3610,8 +3771,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3663,8 +3827,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3716,8 +3883,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3769,61 +3939,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7010000</v>
+      </c>
+      <c r="E72" s="3">
         <v>6437000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5613000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6939000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6668000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6461000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5963000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5286000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5527000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4887000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4625000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4255000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4046000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3772000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3488000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3070000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2750000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3875,8 +4051,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3928,8 +4107,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3981,61 +4163,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15943000</v>
+      </c>
+      <c r="E76" s="3">
         <v>14711000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9940000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13391000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13545000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12365000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10117000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8276000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9069000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8505000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8695000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9176000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8669000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8284000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7597000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6858000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7073000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4087,119 +4275,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>622000</v>
+      </c>
+      <c r="E81" s="3">
         <v>824000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1065000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>432000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>276000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>720000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>708000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-104000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>623000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>257000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>277000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>374000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>274000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>326000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>384000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>368000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4219,61 +4416,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E83" s="3">
         <v>-21000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>143000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>323000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>261000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>231000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>-37000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>30000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>92000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>89000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>99000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>80000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>63000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>108000</v>
       </c>
       <c r="R83" s="3">
         <v>108000</v>
       </c>
       <c r="S83" s="3">
+        <v>108000</v>
+      </c>
+      <c r="T83" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4325,8 +4526,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4378,8 +4582,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4431,8 +4638,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4484,8 +4694,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4537,61 +4750,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-477000</v>
+      </c>
+      <c r="E89" s="3">
         <v>631000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>771000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>671000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>402000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>574000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1009000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1639000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>716000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-54000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>573000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1828000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>269000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>644000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>429000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>231000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4611,8 +4830,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4664,8 +4884,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4717,8 +4940,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4770,61 +4996,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2363000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4358000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-378000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2697000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3241000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1242000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2776000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2119000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2242000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-928000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2884000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1310000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1867000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1464000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1128000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-920000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1649000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4844,8 +5076,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4897,8 +5130,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4950,8 +5186,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5003,8 +5242,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5056,73 +5298,79 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4100000</v>
+      </c>
+      <c r="E100" s="3">
         <v>5264000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>970000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2633000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1635000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2387000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1882000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-150000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1681000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2037000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>139000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>769000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1710000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1752000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>817000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>588000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>641000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-22000</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
@@ -5132,8 +5380,8 @@
       <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -5145,74 +5393,80 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>11000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>15000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-11000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1253000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1538000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1341000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>607000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1204000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1719000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>115000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-538000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>155000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>963000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2172000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1289000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>123000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>947000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>122000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-108000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-746000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>ATH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,251 +665,263 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8450000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3160000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4185000</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3">
         <v>3462000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4534000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3341000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4905000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1263000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2588000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1856000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1060000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3862000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1468000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1716000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1620000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1137000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1241000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E9" s="3">
         <v>347000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>361000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>-403000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>179000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>343000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>274000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>236000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>-45000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>36000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>89000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>82000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>93000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>80000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>67000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>104000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>101000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8147000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2813000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3824000</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3">
         <v>3283000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4191000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3067000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4669000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1308000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2552000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1767000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>978000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3769000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1388000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1649000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1516000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1036000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1121000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -930,8 +942,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -986,8 +999,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1042,64 +1058,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-84000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>284000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>25000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>3000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>13000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>11000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1154,8 +1176,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1173,120 +1198,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6990000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2133000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3293000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>97000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2900000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4290000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2658000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4255000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1407000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1481000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>692000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3453000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1192000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1437000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1214000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>692000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1240000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1460000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1027000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>892000</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
         <v>562000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>244000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>683000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>650000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-144000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>688000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>375000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>368000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>409000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>276000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>279000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>406000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>445000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1307,143 +1339,150 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E20" s="3">
         <v>31000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>218000</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3">
         <v>-29000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>50000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>82000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>90000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-54000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-46000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>18000</v>
       </c>
       <c r="P20" s="3">
         <v>18000</v>
       </c>
       <c r="Q20" s="3">
+        <v>18000</v>
+      </c>
+      <c r="R20" s="3">
         <v>58000</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-44000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1514000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1058000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1110000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3">
         <v>533000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>294000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>765000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>740000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-147000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>679000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>321000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>322000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>427000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>294000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>337000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>406000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>401000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E22" s="3">
         <v>34000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>29000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>20000</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3">
-        <v>15000</v>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3">
         <v>15000</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="J22" s="3">
+        <v>15000</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1469,126 +1508,135 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3">
         <v>15000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1483000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1024000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1081000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1382000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>533000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>279000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>750000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>740000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-147000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>679000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>321000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>322000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>427000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>294000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>337000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>406000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>386000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E24" s="3">
         <v>140000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>150000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-166000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>69000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-14000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>30000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>32000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-43000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>56000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>64000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>45000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>60000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>22000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-88000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1643,120 +1691,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1322000</v>
+      </c>
+      <c r="E26" s="3">
         <v>884000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>931000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1216000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>464000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>293000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>720000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>708000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-104000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>623000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>257000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>277000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>367000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>274000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>326000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>384000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>368000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1065000</v>
+      </c>
+      <c r="E27" s="3">
         <v>622000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>824000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1065000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>432000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>276000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>720000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>708000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-104000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>623000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>257000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>277000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>367000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>274000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>326000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>384000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>368000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1811,8 +1868,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1849,12 +1909,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>7000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1867,8 +1927,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1923,8 +1986,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1979,120 +2045,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-31000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-218000</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3">
         <v>29000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-50000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-82000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-90000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>54000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>46000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-18000</v>
       </c>
       <c r="P32" s="3">
         <v>-18000</v>
       </c>
       <c r="Q32" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="R32" s="3">
         <v>-58000</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>44000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-40000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1065000</v>
+      </c>
+      <c r="E33" s="3">
         <v>622000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>824000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1065000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>432000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>276000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>720000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>708000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-104000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>623000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>257000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>277000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>374000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>274000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>326000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>384000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>368000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2147,125 +2222,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1065000</v>
+      </c>
+      <c r="E35" s="3">
         <v>622000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>824000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1065000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>432000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>276000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>720000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>708000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-104000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>623000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>257000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>277000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>374000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>274000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>326000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>384000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>368000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2286,8 +2370,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2308,64 +2393,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7704000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7548000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6240000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5419000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4240000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3836000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4848000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3023000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2913000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3725000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3610000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2738000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4892000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3608000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3480000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2565000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2459000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2560000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2420,8 +2509,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2476,8 +2568,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2532,8 +2627,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2588,8 +2686,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2644,64 +2745,70 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>180842000</v>
+      </c>
+      <c r="E47" s="3">
         <v>168693000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>161423000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>120733000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>126861000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>124555000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>117742000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>113980000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>107241000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>99547000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>97232000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>78829000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>81751000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>79267000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>77030000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>73624000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>71786000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>72042000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2756,8 +2863,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2812,8 +2922,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2868,8 +2981,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2924,64 +3040,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>738000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1226000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1281000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>564000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>402000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>199000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>391000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>497000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>492000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>218000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>178000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>87000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>105000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>112000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>160000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>306000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>429000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3036,64 +3158,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>202771000</v>
+      </c>
+      <c r="E54" s="3">
         <v>191088000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>183241000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>142179000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>146875000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>144202000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>138980000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>132857000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>125505000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>118204000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>114755000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>93557000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>100161000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>96061000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>93594000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>89220000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>86699000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>87000000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3114,8 +3242,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3136,8 +3265,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3192,8 +3322,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3204,14 +3337,14 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>400000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>475000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3224,12 +3357,12 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>183000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3248,64 +3381,70 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>163947000</v>
+      </c>
+      <c r="E59" s="3">
         <v>155920000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>151879000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>118608000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>117828000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>116331000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>112506000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>110018000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>106220000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>96938000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>95206000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>74070000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>80485000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>79301000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>77401000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>74537000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>72281000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>73425000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3360,28 +3499,31 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1976000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1487000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1486000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>986000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>992000</v>
       </c>
       <c r="H61" s="3">
         <v>992000</v>
       </c>
       <c r="I61" s="3">
-        <v>991000</v>
+        <v>992000</v>
       </c>
       <c r="J61" s="3">
         <v>991000</v>
@@ -3396,11 +3538,11 @@
         <v>991000</v>
       </c>
       <c r="N61" s="3">
+        <v>991000</v>
+      </c>
+      <c r="O61" s="3">
         <v>992000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3416,8 +3558,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3472,8 +3617,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3528,8 +3676,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3584,8 +3735,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3640,64 +3794,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>184114000</v>
+      </c>
+      <c r="E66" s="3">
         <v>175145000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>168530000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>132239000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>133484000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>130657000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>126615000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>122740000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>117229000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>109135000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>106250000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>84862000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>90985000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>87392000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>85310000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>81623000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>79841000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>79927000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3718,8 +3878,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3774,8 +3935,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3830,8 +3994,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3886,8 +4053,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3942,64 +4112,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8073000</v>
+      </c>
+      <c r="E72" s="3">
         <v>7010000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6437000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5613000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6939000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6668000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6461000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5963000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5286000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5527000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4887000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4625000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4255000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4046000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3772000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3488000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3070000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2750000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4054,8 +4230,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4110,8 +4289,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4166,64 +4348,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18657000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15943000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14711000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9940000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13391000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13545000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12365000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10117000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8276000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9069000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8505000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8695000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9176000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8669000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8284000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7597000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6858000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7073000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4278,125 +4466,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1065000</v>
+      </c>
+      <c r="E81" s="3">
         <v>622000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>824000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1065000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>432000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>276000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>720000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>708000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-104000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>623000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>257000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>277000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>374000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>274000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>326000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>384000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>368000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4417,64 +4614,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>274000</v>
+      </c>
+      <c r="E83" s="3">
         <v>258000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>-21000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>143000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>323000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>261000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>231000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>-37000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>30000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>92000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>89000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>99000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>80000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>63000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>108000</v>
       </c>
       <c r="S83" s="3">
         <v>108000</v>
       </c>
       <c r="T83" s="3">
+        <v>108000</v>
+      </c>
+      <c r="U83" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4529,8 +4730,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4585,8 +4789,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4641,8 +4848,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4697,8 +4907,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4753,64 +4966,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3229000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-477000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>631000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>771000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>671000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>402000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>574000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1009000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1639000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>716000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-54000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>573000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1828000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>269000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>644000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>429000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>231000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4831,8 +5050,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4887,8 +5107,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4943,8 +5166,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4999,64 +5225,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7718000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2363000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4358000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-378000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2697000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3241000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1242000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2776000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2119000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2242000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-928000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2884000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1310000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1867000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1464000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1128000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-920000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1649000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5077,8 +5309,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5133,8 +5366,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5189,8 +5425,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5245,8 +5484,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5301,79 +5543,85 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4155000</v>
+      </c>
+      <c r="E100" s="3">
         <v>4100000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5264000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>970000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2633000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1635000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2387000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1882000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-150000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1681000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2037000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>139000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>769000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1710000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1752000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>817000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>588000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>641000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-7000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-22000</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
@@ -5383,8 +5631,8 @@
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -5396,77 +5644,83 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>11000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>15000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-11000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-332000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1253000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1538000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1341000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>607000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1204000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1719000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>115000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-538000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>155000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>963000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2172000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1289000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>123000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>947000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>122000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-108000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-746000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>ATH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,263 +665,275 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4447000</v>
+      </c>
+      <c r="E8" s="3">
         <v>8450000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3160000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4185000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3">
         <v>3462000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4534000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3341000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4905000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1263000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2588000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1856000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1060000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3862000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1468000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1716000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1620000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1137000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1241000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E9" s="3">
         <v>303000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>347000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>361000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>-403000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>179000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>343000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>274000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>236000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>-45000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>36000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>89000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>82000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>93000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>80000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>67000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>104000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>101000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4199000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8147000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2813000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3824000</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3">
         <v>3283000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4191000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3067000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4669000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1308000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2552000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1767000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>978000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3769000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1388000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1649000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1516000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1036000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1121000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -943,8 +955,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1002,8 +1015,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1061,67 +1077,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-136000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-84000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>284000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>25000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>3000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>13000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>11000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1179,8 +1201,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1199,126 +1224,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4228000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6990000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2133000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3293000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>97000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2900000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4290000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2658000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4255000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1407000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1481000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>692000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3453000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1192000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1437000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1214000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>692000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1240000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1460000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1027000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>892000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3">
         <v>562000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>244000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>683000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>650000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-144000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>688000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>375000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>368000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>409000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>276000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>279000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>406000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>445000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1340,152 +1372,159 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E20" s="3">
         <v>54000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>31000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>218000</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3">
         <v>-29000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>50000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>82000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>90000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-54000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-46000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>18000</v>
       </c>
       <c r="Q20" s="3">
         <v>18000</v>
       </c>
       <c r="R20" s="3">
+        <v>18000</v>
+      </c>
+      <c r="S20" s="3">
         <v>58000</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-44000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1514000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1058000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1110000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3">
         <v>533000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>294000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>765000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>740000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-147000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>679000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>321000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>322000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>427000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>294000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>337000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>406000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>401000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E22" s="3">
         <v>31000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>34000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>29000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>20000</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3">
-        <v>15000</v>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J22" s="3">
         <v>15000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>15000</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1511,132 +1550,141 @@
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="3">
         <v>15000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1483000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1024000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1081000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1382000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>533000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>279000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>750000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>740000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-147000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>679000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>321000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>322000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>427000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>294000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>337000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>406000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>386000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E24" s="3">
         <v>161000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>140000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>150000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-166000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>69000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-14000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>30000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>32000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-43000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>56000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>64000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>45000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>60000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>22000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>18000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-88000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1694,126 +1742,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1322000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>884000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>931000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1216000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>464000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>293000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>720000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>708000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-104000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>623000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>257000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>277000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>367000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>274000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>326000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>384000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>368000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>578000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1065000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>622000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>824000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1065000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>432000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>276000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>720000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>708000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-104000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>623000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>257000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>277000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>367000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>274000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>326000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>384000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>368000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1871,31 +1928,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1912,12 +1972,12 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>7000</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1930,8 +1990,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1989,8 +2052,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2048,126 +2114,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-54000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-31000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-218000</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3">
         <v>29000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-50000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-82000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-90000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>54000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>46000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-18000</v>
       </c>
       <c r="Q32" s="3">
         <v>-18000</v>
       </c>
       <c r="R32" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="S32" s="3">
         <v>-58000</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>44000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-40000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>578000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1065000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>622000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>824000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1065000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>432000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>276000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>720000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>708000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-104000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>623000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>257000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>277000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>374000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>274000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>326000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>384000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>368000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2225,131 +2300,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>578000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1065000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>622000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>824000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1065000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>432000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>276000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>720000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>708000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-104000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>623000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>257000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>277000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>374000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>274000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>326000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>384000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>368000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2371,8 +2455,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2394,67 +2479,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6427000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7704000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7548000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6240000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5419000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4240000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3836000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4848000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3023000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2913000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3725000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3610000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2738000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4892000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3608000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3480000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2565000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2459000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2560000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2512,8 +2601,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2571,8 +2663,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2630,8 +2725,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2689,8 +2787,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2748,67 +2849,73 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>182910000</v>
+      </c>
+      <c r="E47" s="3">
         <v>180842000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>168693000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>161423000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>120733000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>126861000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>124555000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>117742000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>113980000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>107241000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>99547000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>97232000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>78829000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>81751000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>79267000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>77030000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>73624000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>71786000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>72042000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2866,8 +2973,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2925,8 +3035,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2984,8 +3097,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3043,67 +3159,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>546000</v>
+      </c>
+      <c r="E52" s="3">
         <v>738000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1226000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1281000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>564000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>402000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>199000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>391000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>497000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>492000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>218000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>178000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>87000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>105000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>112000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>160000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>306000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>429000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3161,67 +3283,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>205670000</v>
+      </c>
+      <c r="E54" s="3">
         <v>202771000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>191088000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>183241000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>142179000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>146875000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>144202000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>138980000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>132857000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>125505000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>118204000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>114755000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>93557000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>100161000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>96061000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>93594000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>89220000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>86699000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>87000000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3243,8 +3371,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3266,8 +3395,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3325,13 +3455,16 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3340,14 +3473,14 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>400000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>475000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3360,12 +3493,12 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>183000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3384,67 +3517,73 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>168883000</v>
+      </c>
+      <c r="E59" s="3">
         <v>163947000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>155920000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>151879000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>118608000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>117828000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>116331000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>112506000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>110018000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>106220000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>96938000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>95206000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>74070000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>80485000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>79301000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>77401000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>74537000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>72281000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>73425000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3502,31 +3641,34 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1977000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1976000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1487000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1486000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>986000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>992000</v>
       </c>
       <c r="I61" s="3">
         <v>992000</v>
       </c>
       <c r="J61" s="3">
-        <v>991000</v>
+        <v>992000</v>
       </c>
       <c r="K61" s="3">
         <v>991000</v>
@@ -3541,11 +3683,11 @@
         <v>991000</v>
       </c>
       <c r="O61" s="3">
+        <v>991000</v>
+      </c>
+      <c r="P61" s="3">
         <v>992000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3561,8 +3703,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3620,8 +3765,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3679,8 +3827,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3738,8 +3889,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3797,67 +3951,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>188379000</v>
+      </c>
+      <c r="E66" s="3">
         <v>184114000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>175145000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>168530000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>132239000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>133484000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>130657000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>126615000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>122740000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>117229000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>109135000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>106250000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>84862000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>90985000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>87392000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>85310000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>81623000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>79841000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>79927000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3879,8 +4039,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3938,8 +4099,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3997,8 +4161,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4056,8 +4223,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4115,67 +4285,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8647000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8073000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7010000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6437000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5613000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6939000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6668000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6461000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5963000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5286000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5527000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4887000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4625000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4255000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4046000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3772000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3488000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3070000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2750000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4233,8 +4409,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4292,8 +4471,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4351,67 +4533,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17291000</v>
+      </c>
+      <c r="E76" s="3">
         <v>18657000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15943000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14711000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9940000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13391000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13545000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12365000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10117000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8276000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9069000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8505000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8695000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9176000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8669000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8284000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7597000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6858000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7073000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4469,131 +4657,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>578000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1065000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>622000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>824000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1065000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>432000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>276000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>720000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>708000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-104000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>623000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>257000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>277000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>374000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>274000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>326000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>384000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>368000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4615,67 +4812,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E83" s="3">
         <v>274000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>258000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>-21000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>143000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>323000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>261000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>231000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>-37000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>30000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>92000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>89000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>99000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>80000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>63000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>108000</v>
       </c>
       <c r="T83" s="3">
         <v>108000</v>
       </c>
       <c r="U83" s="3">
+        <v>108000</v>
+      </c>
+      <c r="V83" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4733,8 +4934,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4792,8 +4996,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4851,8 +5058,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4910,8 +5120,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4969,67 +5182,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1626000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3229000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-477000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>631000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>771000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>671000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>402000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>574000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1009000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1639000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>716000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-54000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>573000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1828000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>269000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>644000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>429000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>231000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5051,8 +5270,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5110,8 +5330,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5169,8 +5392,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5228,67 +5454,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6883000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7718000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2363000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4358000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-378000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2697000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3241000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1242000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2776000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2119000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2242000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-928000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2884000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1310000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1867000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1464000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1128000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-920000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1649000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5310,8 +5542,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5369,8 +5602,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5428,8 +5664,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5487,8 +5726,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5546,85 +5788,91 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3788000</v>
+      </c>
+      <c r="E100" s="3">
         <v>4155000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4100000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5264000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>970000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2633000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1635000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2387000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1882000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-150000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1681000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2037000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>139000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>769000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1710000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1752000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>817000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>588000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>641000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-7000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-22000</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
@@ -5634,8 +5882,8 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5647,80 +5895,86 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>11000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>15000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-11000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1469000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-332000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1253000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1538000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1341000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>607000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1204000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1719000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>115000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-538000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>155000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>963000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2172000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1289000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>123000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>947000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>122000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-108000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-746000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>ATH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,275 +665,287 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6328000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4447000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8450000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3160000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4185000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3">
         <v>3462000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4534000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3341000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4905000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1263000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2588000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1856000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1060000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3862000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1468000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1716000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1620000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1137000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1241000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E9" s="3">
         <v>248000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>303000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>347000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>361000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>-403000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>179000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>343000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>274000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>236000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>-45000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>36000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>89000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>82000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>93000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>80000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>67000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>104000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>101000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6076000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4199000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8147000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2813000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3824000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3">
         <v>3283000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4191000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3067000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4669000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1308000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2552000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1767000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>978000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3769000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1388000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1649000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1516000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1036000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1121000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -956,8 +968,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1080,70 +1096,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>284000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K14" s="3">
+        <v>25000</v>
+      </c>
+      <c r="L14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="O14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R14" s="3">
         <v>8000</v>
       </c>
-      <c r="E14" s="3">
-        <v>-136000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-84000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>284000</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="S14" s="3">
+        <v>13000</v>
+      </c>
+      <c r="T14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W14" s="3">
         <v>6000</v>
       </c>
-      <c r="J14" s="3">
-        <v>25000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>6000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>12000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>8000</v>
-      </c>
-      <c r="R14" s="3">
-        <v>13000</v>
-      </c>
-      <c r="S14" s="3">
-        <v>11000</v>
-      </c>
-      <c r="T14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="V14" s="3">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,8 +1226,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1225,132 +1250,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4379000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4228000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6990000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2133000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3293000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>97000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2900000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4290000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2658000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4255000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1407000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1481000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>692000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3453000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1192000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1437000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1214000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>692000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1240000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1949000</v>
+      </c>
+      <c r="E18" s="3">
         <v>219000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1460000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1027000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>892000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3">
         <v>562000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>244000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>683000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>650000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-144000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>688000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>375000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>368000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>409000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>276000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>279000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>406000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>445000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1373,161 +1405,168 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-48000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>54000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>31000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>218000</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3">
         <v>-29000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>50000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>82000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>90000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-54000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-46000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>18000</v>
       </c>
       <c r="R20" s="3">
         <v>18000</v>
       </c>
       <c r="S20" s="3">
+        <v>18000</v>
+      </c>
+      <c r="T20" s="3">
         <v>58000</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-44000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2024000</v>
+      </c>
+      <c r="E21" s="3">
         <v>171000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1514000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1058000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1110000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
         <v>533000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>294000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>765000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>740000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-147000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>679000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>321000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>322000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>427000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>294000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>337000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>406000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>401000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E22" s="3">
         <v>32000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>31000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>34000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>29000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>20000</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3">
-        <v>15000</v>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>15000</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>15000</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1553,138 +1592,147 @@
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="3">
         <v>15000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1990000</v>
+      </c>
+      <c r="E23" s="3">
         <v>139000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1483000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1024000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1081000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1382000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>533000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>279000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>750000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>740000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-147000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>679000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>321000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>322000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>427000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>294000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>337000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>406000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>386000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E24" s="3">
         <v>62000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>161000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>140000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>150000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-166000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>69000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-14000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>32000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-43000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>56000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>64000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>45000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>60000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>20000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>22000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>18000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-88000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1745,132 +1793,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1806000</v>
+      </c>
+      <c r="E26" s="3">
         <v>77000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1322000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>884000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>931000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1216000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>464000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>293000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>720000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>708000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-104000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>623000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>257000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>277000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>367000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>274000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>326000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>384000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>368000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1382000</v>
+      </c>
+      <c r="E27" s="3">
         <v>578000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1065000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>622000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>824000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1065000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>432000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>276000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>720000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>708000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-104000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>623000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>257000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>277000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>367000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>274000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>326000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>384000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>368000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1931,8 +1988,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1957,8 +2017,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1975,12 +2035,12 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>7000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1993,8 +2053,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2055,8 +2118,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2117,132 +2183,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="E32" s="3">
         <v>48000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-54000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-31000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-218000</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3">
         <v>29000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-50000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-82000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-90000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>54000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>46000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-18000</v>
       </c>
       <c r="R32" s="3">
         <v>-18000</v>
       </c>
       <c r="S32" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="T32" s="3">
         <v>-58000</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>44000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-40000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1382000</v>
+      </c>
+      <c r="E33" s="3">
         <v>578000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1065000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>622000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>824000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1065000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>432000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>276000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>720000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>708000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-104000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>623000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>257000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>277000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>374000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>274000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>326000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>384000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>368000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2303,137 +2378,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1382000</v>
+      </c>
+      <c r="E35" s="3">
         <v>578000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1065000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>622000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>824000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1065000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>432000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>276000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>720000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>708000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-104000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>623000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>257000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>277000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>374000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>274000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>326000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>384000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>368000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2456,8 +2540,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2480,70 +2565,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8057000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6427000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7704000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7548000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6240000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5419000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4240000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3836000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4848000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3023000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2913000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3725000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3610000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2738000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4892000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3608000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3480000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2565000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2459000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2560000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2604,8 +2693,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2666,8 +2758,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2728,8 +2823,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2790,8 +2888,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2852,70 +2953,76 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>191731000</v>
+      </c>
+      <c r="E47" s="3">
         <v>182910000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>180842000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>168693000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>161423000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>120733000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>126861000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>124555000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>117742000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>113980000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>107241000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>99547000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>97232000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>78829000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>81751000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>79267000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>77030000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>73624000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>71786000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>72042000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2976,8 +3083,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3038,8 +3148,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3100,8 +3213,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3162,70 +3278,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>669000</v>
+      </c>
+      <c r="E52" s="3">
         <v>546000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>738000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1226000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1281000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>564000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>402000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>199000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>391000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>497000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>492000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>218000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>178000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>87000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>105000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>112000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>160000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>306000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>429000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3286,70 +3408,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>215549000</v>
+      </c>
+      <c r="E54" s="3">
         <v>205670000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>202771000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>191088000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>183241000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>142179000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>146875000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>144202000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>138980000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>132857000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>125505000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>118204000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>114755000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>93557000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>100161000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>96061000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>93594000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>89220000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>86699000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>87000000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3372,8 +3500,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3396,8 +3525,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3458,16 +3588,19 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3476,14 +3609,14 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>400000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>475000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3496,12 +3629,12 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3">
         <v>183000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3520,70 +3653,76 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>173793000</v>
+      </c>
+      <c r="E59" s="3">
         <v>168883000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>163947000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>155920000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>151879000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>118608000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>117828000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>116331000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>112506000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>110018000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>106220000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>96938000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>95206000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>74070000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>80485000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>79301000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>77401000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>74537000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>72281000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>73425000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3644,34 +3783,37 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2468000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1977000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1976000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1487000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1486000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>986000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>992000</v>
       </c>
       <c r="J61" s="3">
         <v>992000</v>
       </c>
       <c r="K61" s="3">
-        <v>991000</v>
+        <v>992000</v>
       </c>
       <c r="L61" s="3">
         <v>991000</v>
@@ -3686,11 +3828,11 @@
         <v>991000</v>
       </c>
       <c r="P61" s="3">
+        <v>991000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>992000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3706,8 +3848,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3768,8 +3913,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3830,8 +3978,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3892,8 +4043,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3954,70 +4108,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>195543000</v>
+      </c>
+      <c r="E66" s="3">
         <v>188379000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>184114000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>175145000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>168530000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>132239000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>133484000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>130657000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>126615000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>122740000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>117229000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>109135000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>106250000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>84862000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>90985000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>87392000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>85310000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>81623000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>79841000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>79927000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4040,8 +4200,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4102,8 +4263,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4164,8 +4328,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4226,8 +4393,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4288,70 +4458,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10029000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8647000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8073000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7010000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6437000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5613000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6939000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6668000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6461000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5963000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5286000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5527000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4887000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4625000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4255000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4046000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3772000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3488000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3070000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2750000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4412,8 +4588,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4474,8 +4653,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4536,70 +4718,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20006000</v>
+      </c>
+      <c r="E76" s="3">
         <v>17291000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18657000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15943000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14711000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9940000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13391000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13545000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12365000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10117000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8276000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9069000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8505000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8695000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9176000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8669000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8284000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7597000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6858000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7073000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4660,137 +4848,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1382000</v>
+      </c>
+      <c r="E81" s="3">
         <v>578000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1065000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>622000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>824000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1065000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>432000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>276000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>720000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>708000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-104000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>623000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>257000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>277000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>374000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>274000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>326000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>384000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>368000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4813,70 +5010,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E83" s="3">
         <v>164000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>274000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>258000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>-21000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>143000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>323000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>261000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>231000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>-37000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>30000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>92000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>89000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>99000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>80000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>63000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>108000</v>
       </c>
       <c r="U83" s="3">
         <v>108000</v>
       </c>
       <c r="V83" s="3">
+        <v>108000</v>
+      </c>
+      <c r="W83" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4937,8 +5138,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4999,8 +5203,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5061,8 +5268,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5123,8 +5333,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5185,70 +5398,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>872000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1626000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3229000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-477000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>631000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>771000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>671000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>402000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>574000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1009000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1639000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>716000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-54000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>573000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1828000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>269000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>644000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>429000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>231000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5271,8 +5490,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5333,8 +5553,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5395,8 +5618,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5457,70 +5683,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4389000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6883000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7718000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2363000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4358000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-378000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2697000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3241000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1242000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2776000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2119000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2242000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-928000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2884000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1310000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1867000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1464000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1128000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-920000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1649000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5543,8 +5775,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5605,8 +5838,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5667,8 +5903,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5729,8 +5968,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5791,70 +6033,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5270000</v>
+      </c>
+      <c r="E100" s="3">
         <v>3788000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4155000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4100000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5264000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>970000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2633000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1635000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2387000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1882000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-150000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1681000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2037000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>139000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>769000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1710000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1752000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>817000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>588000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>641000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5862,20 +6110,20 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-7000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-22000</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
@@ -5885,8 +6133,8 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -5898,83 +6146,89 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>11000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>15000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-11000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1753000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1469000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-332000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1253000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1538000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1341000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>607000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1204000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1719000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>115000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-538000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>155000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>963000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2172000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1289000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>123000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>947000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>122000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-108000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-746000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>ATH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,287 +665,299 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8672000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6328000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4447000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8450000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3160000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4185000</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3">
         <v>3462000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4534000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3341000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4905000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1263000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2588000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1856000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1060000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3862000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1468000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1716000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1620000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1137000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1241000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E9" s="3">
         <v>252000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>248000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>303000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>347000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>361000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>-403000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>179000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>343000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>274000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>236000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>-45000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>36000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>89000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>82000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>93000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>80000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>67000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>104000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>101000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8504000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6076000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4199000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8147000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2813000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3824000</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3">
         <v>3283000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4191000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3067000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4669000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1308000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2552000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1767000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>978000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3769000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1388000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1649000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1516000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1036000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1121000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -969,8 +981,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1034,8 +1047,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1099,8 +1115,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1110,62 +1129,65 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>-136000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-84000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>284000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>25000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>3000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>13000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>11000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1229,8 +1251,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1251,138 +1276,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7972000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4379000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4228000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6990000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2133000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3293000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>97000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2900000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4290000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2658000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4255000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1407000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1900000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1481000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>692000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3453000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1192000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1437000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1214000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>692000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1240000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>700000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1949000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>219000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1460000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1027000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>892000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>562000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>244000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>683000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>650000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-144000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>688000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>375000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>368000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>409000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>276000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>279000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>406000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>445000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1406,138 +1438,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E20" s="3">
         <v>75000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-48000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>54000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>31000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>218000</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3">
         <v>-29000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>50000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>82000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>90000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-46000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>18000</v>
       </c>
       <c r="S20" s="3">
         <v>18000</v>
       </c>
       <c r="T20" s="3">
+        <v>18000</v>
+      </c>
+      <c r="U20" s="3">
         <v>58000</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-44000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>754000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2024000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>171000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1514000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1058000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1110000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>533000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>294000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>765000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>740000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-147000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>679000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>321000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>322000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>427000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>294000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>337000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>406000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>401000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1545,31 +1584,31 @@
         <v>34000</v>
       </c>
       <c r="E22" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F22" s="3">
         <v>32000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>31000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>34000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>29000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>20000</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="3">
-        <v>15000</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>15000</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>15000</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
@@ -1595,144 +1634,153 @@
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="3">
         <v>15000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>720000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1990000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>139000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1483000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1024000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1081000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1382000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>533000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>279000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>750000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>740000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-147000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>679000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>321000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>322000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>427000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>294000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>337000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>406000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>386000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E24" s="3">
         <v>184000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>62000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>161000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>140000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>150000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-166000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>69000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-14000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>30000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>32000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-43000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>56000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>64000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>45000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>60000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>20000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>22000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>18000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-88000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1796,138 +1844,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>770000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1806000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>77000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1322000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>884000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>931000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1216000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>464000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>293000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>720000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>708000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-104000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>623000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>257000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>277000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>367000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>274000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>326000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>384000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>368000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>698000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1382000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>578000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1065000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>622000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>824000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1065000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>432000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>276000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>720000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>708000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-104000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>623000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>257000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>277000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>367000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>274000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>326000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>384000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>368000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1991,8 +2048,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2020,8 +2080,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2038,12 +2098,12 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>7000</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2056,8 +2116,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2121,8 +2184,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2186,138 +2252,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-75000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>48000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-54000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-31000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-218000</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="3">
         <v>29000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-50000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-82000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-90000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>54000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>46000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-18000</v>
       </c>
       <c r="S32" s="3">
         <v>-18000</v>
       </c>
       <c r="T32" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="U32" s="3">
         <v>-58000</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>44000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-40000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>698000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1382000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>578000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1065000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>622000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>824000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1065000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>432000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>276000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>720000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>708000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-104000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>623000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>257000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>277000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>374000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>274000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>326000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>384000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>368000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2381,143 +2456,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>698000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1382000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>578000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1065000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>622000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>824000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1065000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>432000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>276000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>720000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>708000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-104000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>623000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>257000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>277000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>374000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>274000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>326000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>384000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>368000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2541,8 +2625,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2566,73 +2651,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7753000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8057000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6427000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7704000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7548000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6240000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5419000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4240000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3836000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4848000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3023000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2913000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3725000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3610000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2738000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4892000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3608000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3480000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2565000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2459000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2560000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2696,8 +2785,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2761,8 +2853,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2826,8 +2921,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2891,8 +2989,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2956,73 +3057,79 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>201180000</v>
+      </c>
+      <c r="E47" s="3">
         <v>191731000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>182910000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>180842000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>168693000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>161423000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>120733000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>126861000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>124555000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>117742000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>113980000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>107241000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>99547000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>97232000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>78829000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>81751000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>79267000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>77030000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>73624000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>71786000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>72042000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3086,8 +3193,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3151,8 +3261,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3216,8 +3329,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3281,73 +3397,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>757000</v>
+      </c>
+      <c r="E52" s="3">
         <v>669000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>546000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>738000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1226000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1281000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>564000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>402000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>199000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>391000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>497000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>492000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>218000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>178000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>87000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>105000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>112000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>160000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>306000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>429000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3411,73 +3533,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>224396000</v>
+      </c>
+      <c r="E54" s="3">
         <v>215549000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>205670000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>202771000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>191088000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>183241000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>142179000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>146875000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>144202000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>138980000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>132857000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>125505000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>118204000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>114755000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>93557000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>100161000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>96061000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>93594000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>89220000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>86699000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>87000000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3501,8 +3629,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3526,8 +3655,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3591,8 +3721,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3602,8 +3735,8 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3612,14 +3745,14 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>400000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>475000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3632,12 +3765,12 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>183000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3656,73 +3789,79 @@
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>181193000</v>
+      </c>
+      <c r="E59" s="3">
         <v>173793000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>168883000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>163947000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>155920000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>151879000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>118608000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>117828000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>116331000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>112506000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>110018000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>106220000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>96938000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>95206000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>74070000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>80485000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>79301000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>77401000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>74537000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>72281000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>73425000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3786,37 +3925,40 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2469000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2468000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1977000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1976000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1487000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1486000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>986000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>992000</v>
       </c>
       <c r="K61" s="3">
         <v>992000</v>
       </c>
       <c r="L61" s="3">
-        <v>991000</v>
+        <v>992000</v>
       </c>
       <c r="M61" s="3">
         <v>991000</v>
@@ -3831,11 +3973,11 @@
         <v>991000</v>
       </c>
       <c r="Q61" s="3">
+        <v>991000</v>
+      </c>
+      <c r="R61" s="3">
         <v>992000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3851,8 +3993,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3916,8 +4061,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3981,8 +4129,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4046,8 +4197,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4111,73 +4265,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>204007000</v>
+      </c>
+      <c r="E66" s="3">
         <v>195543000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>188379000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>184114000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>175145000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>168530000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>132239000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>133484000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>130657000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>126615000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>122740000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>117229000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>109135000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>106250000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>84862000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>90985000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>87392000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>85310000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>81623000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>79841000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>79927000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4201,8 +4361,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4266,8 +4427,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4331,8 +4495,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4396,8 +4563,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4461,73 +4631,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10727000</v>
+      </c>
+      <c r="E72" s="3">
         <v>10029000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8647000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8073000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7010000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6437000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5613000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6939000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6668000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6461000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5963000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5286000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5527000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4887000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4625000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4255000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4046000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3772000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3488000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3070000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2750000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4591,8 +4767,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4656,8 +4835,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4721,73 +4903,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20389000</v>
+      </c>
+      <c r="E76" s="3">
         <v>20006000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17291000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18657000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15943000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14711000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9940000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13391000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13545000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12365000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10117000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8276000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9069000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8505000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8695000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9176000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8669000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8284000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7597000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6858000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7073000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4851,143 +5039,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>698000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1382000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>578000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1065000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>622000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>824000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1065000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>432000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>276000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>720000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>708000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-104000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>623000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>257000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>277000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>374000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>274000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>326000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>384000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>368000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5011,73 +5208,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E83" s="3">
         <v>230000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>164000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>274000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>258000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>-21000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>143000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>323000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>261000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>231000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>-37000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>30000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>92000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>89000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>99000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>80000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>63000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>108000</v>
       </c>
       <c r="V83" s="3">
         <v>108000</v>
       </c>
       <c r="W83" s="3">
+        <v>108000</v>
+      </c>
+      <c r="X83" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5141,8 +5342,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5206,8 +5410,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5271,8 +5478,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5336,8 +5546,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5401,73 +5614,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4763000</v>
+      </c>
+      <c r="E89" s="3">
         <v>872000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1626000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3229000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-477000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>631000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>771000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>671000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>402000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>574000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1009000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1639000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>716000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>573000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1828000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>269000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>644000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>429000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>231000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5491,8 +5710,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5556,8 +5776,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5621,8 +5844,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5686,73 +5912,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8177000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4389000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6883000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7718000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2363000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4358000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-378000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2697000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3241000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1242000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2776000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2119000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2242000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-928000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2884000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1310000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1867000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1464000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1128000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-920000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1649000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5776,8 +6008,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5841,8 +6074,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5906,8 +6142,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5971,8 +6210,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6036,97 +6278,103 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3201000</v>
+      </c>
+      <c r="E100" s="3">
         <v>5270000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3788000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4155000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4100000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5264000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>970000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2633000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1635000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2387000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1882000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-150000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1681000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2037000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>139000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>769000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1710000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1752000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>817000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>588000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>641000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-7000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-22000</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
@@ -6136,8 +6384,8 @@
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -6149,86 +6397,92 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>11000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>15000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-11000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-216000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1753000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1469000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-332000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1253000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1538000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1341000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>607000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1204000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1719000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>115000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-538000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>155000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>963000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2172000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1289000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>123000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>947000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>122000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-108000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-746000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>ATH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,299 +665,311 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6678000</v>
+      </c>
+      <c r="E8" s="3">
         <v>8672000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6328000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4447000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8450000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3160000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4185000</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="3">
         <v>3462000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4534000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3341000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4905000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1263000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2588000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1856000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1060000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3862000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1468000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1716000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1620000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1137000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1241000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E9" s="3">
         <v>168000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>252000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>248000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>303000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>347000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>361000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>-403000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>179000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>343000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>274000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>236000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>-45000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>36000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>89000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>82000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>93000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>80000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>67000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>104000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>101000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6516000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8504000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6076000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4199000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8147000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2813000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3824000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3">
         <v>3283000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4191000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3067000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4669000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1308000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2552000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1767000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>978000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3769000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1388000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1649000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1516000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1036000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1121000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -982,8 +994,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1050,8 +1063,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1118,8 +1134,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1132,62 +1151,65 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>-136000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-84000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>284000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>25000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>3000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>8000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>13000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>11000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1254,8 +1276,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1277,144 +1302,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5421000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7972000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4379000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4228000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6990000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2133000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3293000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>97000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2900000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4290000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2658000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4255000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1407000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1481000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>692000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3453000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1192000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1437000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1214000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>692000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1240000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1257000</v>
+      </c>
+      <c r="E18" s="3">
         <v>700000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1949000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>219000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1460000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1027000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>892000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>562000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>244000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>683000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>650000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-144000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>688000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>375000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>368000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>409000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>276000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>279000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>406000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>445000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1439,179 +1471,186 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E20" s="3">
         <v>54000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>75000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-48000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>54000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>31000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>218000</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="3">
         <v>-29000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>50000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>82000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>90000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-54000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-46000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>18000</v>
       </c>
       <c r="T20" s="3">
         <v>18000</v>
       </c>
       <c r="U20" s="3">
+        <v>18000</v>
+      </c>
+      <c r="V20" s="3">
         <v>58000</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-44000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1376000</v>
+      </c>
+      <c r="E21" s="3">
         <v>754000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2024000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>171000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1514000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1058000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1110000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>533000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>294000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>765000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>740000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-147000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>679000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>321000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>322000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>427000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>294000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>337000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>406000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>401000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34000</v>
+        <v>39000</v>
       </c>
       <c r="E22" s="3">
         <v>34000</v>
       </c>
       <c r="F22" s="3">
+        <v>34000</v>
+      </c>
+      <c r="G22" s="3">
         <v>32000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>31000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>34000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>29000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>20000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="3">
-        <v>15000</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>15000</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>15000</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1637,150 +1676,159 @@
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3">
         <v>15000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1337000</v>
+      </c>
+      <c r="E23" s="3">
         <v>720000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1990000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>139000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1483000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1024000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1081000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1382000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>533000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>279000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>750000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>740000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-147000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>679000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>321000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>322000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>427000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>294000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>337000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>406000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>386000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-50000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>184000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>62000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>161000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>140000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>150000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-166000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>69000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-14000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>30000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>32000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-43000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>56000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>64000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>45000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>60000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>20000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>22000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>18000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-88000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1847,144 +1895,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1147000</v>
+      </c>
+      <c r="E26" s="3">
         <v>770000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1806000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>77000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1322000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>884000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>931000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1216000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>464000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>293000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>720000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>708000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-104000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>623000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>257000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>277000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>367000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>274000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>326000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>384000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>368000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1060000</v>
+      </c>
+      <c r="E27" s="3">
         <v>698000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1382000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>578000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1065000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>622000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>824000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1065000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>432000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>276000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>720000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>708000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-104000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>623000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>257000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>277000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>367000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>274000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>326000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>384000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>368000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2051,8 +2108,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2083,8 +2143,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2101,12 +2161,12 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>7000</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2119,8 +2179,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2187,8 +2250,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2255,144 +2321,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-54000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-75000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>48000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-54000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-31000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-218000</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="3">
         <v>29000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-50000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-82000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-90000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>54000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>46000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-18000</v>
       </c>
       <c r="T32" s="3">
         <v>-18000</v>
       </c>
       <c r="U32" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="V32" s="3">
         <v>-58000</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>44000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-40000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1060000</v>
+      </c>
+      <c r="E33" s="3">
         <v>698000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1382000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>578000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1065000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>622000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>824000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1065000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>432000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>276000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>720000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>708000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-104000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>623000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>257000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>277000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>374000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>274000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>326000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>384000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>368000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2459,149 +2534,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1060000</v>
+      </c>
+      <c r="E35" s="3">
         <v>698000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1382000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>578000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1065000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>622000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>824000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1065000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>432000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>276000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>720000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>708000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-104000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>623000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>257000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>277000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>374000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>274000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>326000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>384000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>368000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2626,8 +2710,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2652,76 +2737,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9633000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7753000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8057000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6427000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7704000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7548000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6240000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5419000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4240000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3836000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4848000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3023000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2913000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3725000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3610000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2738000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4892000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3608000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3480000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2565000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2459000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2560000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2788,8 +2877,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2856,8 +2948,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2924,8 +3019,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2992,8 +3090,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3060,76 +3161,82 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>208908000</v>
+      </c>
+      <c r="E47" s="3">
         <v>201180000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>191731000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>182910000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>180842000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>168693000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>161423000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>120733000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>126861000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>124555000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>117742000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>113980000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>107241000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>99547000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>97232000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>78829000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>81751000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>79267000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>77030000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>73624000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>71786000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>72042000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3196,8 +3303,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3264,8 +3374,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3332,8 +3445,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3400,76 +3516,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>796000</v>
+      </c>
+      <c r="E52" s="3">
         <v>757000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>669000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>546000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>738000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1226000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1281000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>564000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>402000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>199000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>391000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>497000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>492000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>218000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>178000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>87000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>105000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>112000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>160000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>306000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>429000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3536,76 +3658,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>235149000</v>
+      </c>
+      <c r="E54" s="3">
         <v>224396000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>215549000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>205670000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>202771000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>191088000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>183241000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>142179000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>146875000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>144202000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>138980000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>132857000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>125505000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>118204000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>114755000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>93557000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>100161000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>96061000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>93594000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>89220000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>86699000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>87000000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3630,8 +3758,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3656,8 +3785,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3724,8 +3854,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3738,8 +3871,8 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3748,14 +3881,14 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>400000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>475000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3768,12 +3901,12 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
         <v>183000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3792,76 +3925,82 @@
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>190210000</v>
+      </c>
+      <c r="E59" s="3">
         <v>181193000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>173793000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>168883000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>163947000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>155920000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>151879000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>118608000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>117828000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>116331000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>112506000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>110018000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>106220000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>96938000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>95206000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>74070000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>80485000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>79301000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>77401000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>74537000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>72281000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>73425000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3928,40 +4067,43 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2964000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2469000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2468000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1977000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1976000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1487000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1486000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>986000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>992000</v>
       </c>
       <c r="L61" s="3">
         <v>992000</v>
       </c>
       <c r="M61" s="3">
-        <v>991000</v>
+        <v>992000</v>
       </c>
       <c r="N61" s="3">
         <v>991000</v>
@@ -3976,11 +4118,11 @@
         <v>991000</v>
       </c>
       <c r="R61" s="3">
+        <v>991000</v>
+      </c>
+      <c r="S61" s="3">
         <v>992000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3996,8 +4138,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4064,8 +4209,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4132,8 +4280,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4200,8 +4351,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4268,76 +4422,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>215019000</v>
+      </c>
+      <c r="E66" s="3">
         <v>204007000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>195543000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>188379000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>184114000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>175145000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>168530000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>132239000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>133484000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>130657000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>126615000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>122740000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>117229000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>109135000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>106250000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>84862000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>90985000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>87392000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>85310000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>81623000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>79841000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>79927000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4362,8 +4522,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4430,8 +4591,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4498,8 +4662,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4566,8 +4733,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4634,76 +4804,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11033000</v>
+      </c>
+      <c r="E72" s="3">
         <v>10727000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10029000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8647000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8073000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7010000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6437000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5613000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6939000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6668000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6461000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5963000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5286000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5527000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4887000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4625000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4255000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4046000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3772000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3488000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3070000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2750000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4770,8 +4946,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4838,8 +5017,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4906,76 +5088,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20130000</v>
+      </c>
+      <c r="E76" s="3">
         <v>20389000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20006000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17291000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18657000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15943000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14711000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9940000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13391000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13545000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12365000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10117000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8276000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9069000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8505000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8695000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9176000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8669000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8284000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7597000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6858000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7073000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5042,149 +5230,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1060000</v>
+      </c>
+      <c r="E81" s="3">
         <v>698000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1382000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>578000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1065000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>622000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>824000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1065000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>432000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>276000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>720000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>708000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-104000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>623000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>257000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>277000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>374000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>274000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>326000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>384000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>368000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5209,76 +5406,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E83" s="3">
         <v>136000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>230000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>164000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>274000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>258000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>-21000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>143000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>323000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>261000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>231000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>-37000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>30000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>92000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>89000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>99000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>80000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>63000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>108000</v>
       </c>
       <c r="W83" s="3">
         <v>108000</v>
       </c>
       <c r="X83" s="3">
+        <v>108000</v>
+      </c>
+      <c r="Y83" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5345,8 +5546,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5413,8 +5617,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5481,8 +5688,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5549,8 +5759,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5617,76 +5830,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3031000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4763000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>872000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1626000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3229000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-477000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>631000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>771000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>671000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>402000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>574000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1009000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1639000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>716000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-54000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>573000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1828000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>269000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>644000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>429000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>231000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5711,8 +5930,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5779,8 +5999,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5847,8 +6070,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5915,76 +6141,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8483000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8177000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4389000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6883000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7718000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2363000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4358000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-378000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2697000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3241000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1242000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2776000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2119000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2242000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-928000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2884000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1310000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1867000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1464000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1128000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-920000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1649000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6009,8 +6241,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6077,8 +6310,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6145,8 +6381,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6213,8 +6452,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6281,103 +6523,109 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7370000</v>
+      </c>
+      <c r="E100" s="3">
         <v>3201000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5270000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3788000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4155000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4100000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5264000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>970000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2633000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1635000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2387000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1882000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-150000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1681000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2037000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>139000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>769000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1710000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1752000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>817000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>588000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>641000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-7000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-22000</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
@@ -6387,8 +6635,8 @@
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -6400,89 +6648,95 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>11000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>15000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-11000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1919000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-216000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1753000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1469000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-332000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1253000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1538000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1341000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>607000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1204000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1719000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>115000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-538000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>155000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>963000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2172000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1289000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>123000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>947000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>122000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-108000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-746000</v>
       </c>
     </row>
